--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_8.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7157.389221752106</v>
+        <v>-17199.59406244381</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24728256.75116414</v>
+        <v>24061417.37221272</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15140382.24954452</v>
+        <v>14486812.97423426</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2946226.161639949</v>
+        <v>3180226.543901492</v>
       </c>
     </row>
     <row r="11">
@@ -2078,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>155.1980034337069</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>113.3010685731256</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2141,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2175,7 +2177,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H21" t="n">
-        <v>52.84233230531351</v>
+        <v>52.84233230531348</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2239,7 +2241,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2299,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>52.51936334151766</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>54.6824476598464</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2330,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>362.5232248329617</v>
       </c>
       <c r="H23" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>156.3824432241002</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2412,7 +2414,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H24" t="n">
-        <v>52.8423323053137</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2457,7 +2459,7 @@
         <v>202.9234074721264</v>
       </c>
       <c r="W24" t="n">
-        <v>194.556163395115</v>
+        <v>194.5561633951149</v>
       </c>
       <c r="X24" t="n">
         <v>161.8425727710037</v>
@@ -2476,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>33.99527653384045</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -2485,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>222.400135798315</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2552,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2609,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>117.1062314974015</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>190.355528409776</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>155.022288928117</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>257.3641862747872</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>389.8620630604702</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>400.2956717864458</v>
+        <v>216.1933070438698</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2855,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2883,10 +2885,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G30" t="n">
-        <v>93.11323406457223</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H30" t="n">
-        <v>52.84233230531351</v>
+        <v>52.84233230531348</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>236.2449788946804</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3010,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>65.7695357349571</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3026,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>279.2468787171948</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3080,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>73.13776408099858</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3120,7 +3122,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G33" t="n">
-        <v>93.11323406457223</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H33" t="n">
         <v>52.84233230531351</v>
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>130.3000702357232</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -3202,7 +3204,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>33.28726748941902</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3244,13 +3246,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3275,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3329,10 +3331,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>35.695153558516</v>
+        <v>158.6078173919419</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3354,7 +3356,7 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F36" t="n">
-        <v>92.70937201392488</v>
+        <v>92.70937201392486</v>
       </c>
       <c r="G36" t="n">
         <v>93.11323406457203</v>
@@ -3421,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>130.3000702357228</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -3481,16 +3483,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>156.9066009617971</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3551,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>291.9436117325924</v>
       </c>
       <c r="W38" t="n">
-        <v>374.5078541983013</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>145.4472185804344</v>
+        <v>130.3000702357228</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -3679,7 +3681,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3718,10 +3720,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,13 +3745,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>177.5316902217505</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>140.8320201297508</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3797,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3834,7 +3836,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H42" t="n">
-        <v>52.8423323053137</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>88.66266823451896</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>68.83205621562998</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3980,13 +3982,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4034,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>156.956786128046</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4053,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="46">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.38948233378289</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -5726,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1311.305734938569</v>
+        <v>1043.871003296574</v>
       </c>
       <c r="C20" t="n">
-        <v>1311.305734938569</v>
+        <v>616.9702733098738</v>
       </c>
       <c r="D20" t="n">
-        <v>888.013114123569</v>
+        <v>193.6776524948741</v>
       </c>
       <c r="E20" t="n">
-        <v>462.0361742714265</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F20" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G20" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H20" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I20" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J20" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K20" t="n">
-        <v>475.2419029331441</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L20" t="n">
-        <v>932.027809635875</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M20" t="n">
-        <v>1388.813716338606</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N20" t="n">
-        <v>1845.599623041337</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="O20" t="n">
-        <v>1845.599623041337</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="P20" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q20" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R20" t="n">
         <v>1845.599623041337</v>
@@ -5780,22 +5782,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T20" t="n">
-        <v>1731.154099230099</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U20" t="n">
-        <v>1731.154099230099</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V20" t="n">
-        <v>1731.154099230099</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W20" t="n">
-        <v>1731.154099230099</v>
+        <v>1449.208273341683</v>
       </c>
       <c r="X20" t="n">
-        <v>1731.154099230099</v>
+        <v>1449.208273341683</v>
       </c>
       <c r="Y20" t="n">
-        <v>1731.154099230099</v>
+        <v>1043.871003296574</v>
       </c>
     </row>
     <row r="21">
@@ -5811,43 +5813,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D21" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E21" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F21" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G21" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H21" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I21" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J21" t="n">
-        <v>36.91199246082674</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K21" t="n">
-        <v>36.91199246082674</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="L21" t="n">
-        <v>36.91199246082674</v>
+        <v>1222.18129514588</v>
       </c>
       <c r="M21" t="n">
-        <v>36.91199246082674</v>
+        <v>1678.96720184861</v>
       </c>
       <c r="N21" t="n">
-        <v>393.2225928484407</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="O21" t="n">
-        <v>850.0084995511716</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="P21" t="n">
-        <v>1306.794406253902</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q21" t="n">
         <v>1763.580312956633</v>
@@ -5884,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>524.5425982991959</v>
+        <v>302.9375304263186</v>
       </c>
       <c r="C22" t="n">
-        <v>352.5700351781119</v>
+        <v>302.9375304263186</v>
       </c>
       <c r="D22" t="n">
-        <v>352.5700351781119</v>
+        <v>302.9375304263186</v>
       </c>
       <c r="E22" t="n">
-        <v>352.5700351781119</v>
+        <v>302.9375304263186</v>
       </c>
       <c r="F22" t="n">
-        <v>180.7082609526723</v>
+        <v>302.9375304263186</v>
       </c>
       <c r="G22" t="n">
-        <v>180.7082609526723</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="H22" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I22" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J22" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K22" t="n">
-        <v>263.4395936666639</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L22" t="n">
-        <v>618.1289149610848</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M22" t="n">
-        <v>1009.314709931336</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N22" t="n">
-        <v>1386.806220807371</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O22" t="n">
-        <v>1742.234349487134</v>
+        <v>1799.725677711293</v>
       </c>
       <c r="P22" t="n">
         <v>1845.599623041337</v>
@@ -5935,25 +5937,25 @@
         <v>1798.56100972851</v>
       </c>
       <c r="S22" t="n">
-        <v>1798.56100972851</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T22" t="n">
-        <v>1798.56100972851</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U22" t="n">
-        <v>1518.376561228814</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="V22" t="n">
-        <v>1236.665093836843</v>
+        <v>823.1906985818778</v>
       </c>
       <c r="W22" t="n">
-        <v>1183.615231875714</v>
+        <v>548.3382947543907</v>
       </c>
       <c r="X22" t="n">
-        <v>941.0513353215194</v>
+        <v>493.1034991383843</v>
       </c>
       <c r="Y22" t="n">
-        <v>714.7085670112615</v>
+        <v>493.1034991383843</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>334.7803709867919</v>
+        <v>403.097068049677</v>
       </c>
       <c r="C23" t="n">
-        <v>334.7803709867919</v>
+        <v>403.097068049677</v>
       </c>
       <c r="D23" t="n">
-        <v>334.7803709867919</v>
+        <v>403.097068049677</v>
       </c>
       <c r="E23" t="n">
-        <v>334.7803709867919</v>
+        <v>403.097068049677</v>
       </c>
       <c r="F23" t="n">
-        <v>334.7803709867919</v>
+        <v>403.097068049677</v>
       </c>
       <c r="G23" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H23" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I23" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J23" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K23" t="n">
-        <v>856.3013579804531</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L23" t="n">
-        <v>932.027809635875</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="M23" t="n">
-        <v>1388.813716338606</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="N23" t="n">
-        <v>1388.813716338606</v>
+        <v>358.3859952497894</v>
       </c>
       <c r="O23" t="n">
-        <v>1388.813716338606</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="P23" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q23" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R23" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S23" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T23" t="n">
-        <v>1520.30675795911</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U23" t="n">
-        <v>1261.951848555523</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="V23" t="n">
-        <v>904.4624336817722</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="W23" t="n">
-        <v>746.5003698190446</v>
+        <v>1228.282702386317</v>
       </c>
       <c r="X23" t="n">
-        <v>334.7803709867919</v>
+        <v>1228.282702386317</v>
       </c>
       <c r="Y23" t="n">
-        <v>334.7803709867919</v>
+        <v>822.945432341207</v>
       </c>
     </row>
     <row r="24">
@@ -6042,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C24" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D24" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E24" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F24" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G24" t="n">
-        <v>90.28808569851735</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H24" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I24" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J24" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K24" t="n">
-        <v>308.6094817404178</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L24" t="n">
-        <v>308.6094817404178</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M24" t="n">
-        <v>765.3953884431487</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="N24" t="n">
-        <v>932.027809635875</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O24" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P24" t="n">
         <v>1845.599623041337</v>
@@ -6096,7 +6098,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T24" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U24" t="n">
         <v>1437.627243819906</v>
@@ -6105,13 +6107,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W24" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X24" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y24" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="25">
@@ -6121,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>649.9940394765607</v>
+        <v>372.20132845514</v>
       </c>
       <c r="C25" t="n">
-        <v>615.6553763110653</v>
+        <v>200.228765334056</v>
       </c>
       <c r="D25" t="n">
-        <v>452.338603437836</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E25" t="n">
-        <v>452.338603437836</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F25" t="n">
-        <v>280.4768292123964</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G25" t="n">
-        <v>280.4768292123964</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H25" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I25" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J25" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K25" t="n">
-        <v>320.9309218908219</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L25" t="n">
-        <v>675.6202431852428</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M25" t="n">
-        <v>1066.806038155494</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N25" t="n">
-        <v>1444.297549031529</v>
+        <v>1386.806220807371</v>
       </c>
       <c r="O25" t="n">
-        <v>1799.725677711293</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P25" t="n">
         <v>1845.599623041337</v>
@@ -6169,28 +6171,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R25" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S25" t="n">
-        <v>1675.464575560472</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T25" t="n">
-        <v>1675.464575560472</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U25" t="n">
-        <v>1675.464575560472</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="V25" t="n">
-        <v>1393.753108168501</v>
+        <v>823.1906985818778</v>
       </c>
       <c r="W25" t="n">
-        <v>1118.900704341014</v>
+        <v>598.544096765398</v>
       </c>
       <c r="X25" t="n">
-        <v>876.3368077868187</v>
+        <v>598.544096765398</v>
       </c>
       <c r="Y25" t="n">
-        <v>649.9940394765607</v>
+        <v>372.20132845514</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>902.1248659800493</v>
+        <v>899.4405469429066</v>
       </c>
       <c r="C26" t="n">
-        <v>902.1248659800493</v>
+        <v>899.4405469429066</v>
       </c>
       <c r="D26" t="n">
-        <v>902.1248659800493</v>
+        <v>476.1479261279069</v>
       </c>
       <c r="E26" t="n">
         <v>476.1479261279069</v>
@@ -6215,28 +6217,28 @@
         <v>476.1479261279069</v>
       </c>
       <c r="G26" t="n">
-        <v>71.80886371735554</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="H26" t="n">
-        <v>71.80886371735554</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="I26" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J26" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K26" t="n">
-        <v>399.5154512777223</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L26" t="n">
-        <v>856.3013579804531</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M26" t="n">
-        <v>856.3013579804531</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="N26" t="n">
-        <v>856.3013579804531</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="O26" t="n">
         <v>1271.957808655251</v>
@@ -6257,19 +6259,19 @@
         <v>1845.599623041337</v>
       </c>
       <c r="U26" t="n">
-        <v>1727.310500316689</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V26" t="n">
-        <v>1727.310500316689</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="W26" t="n">
-        <v>1727.310500316689</v>
+        <v>1091.718858467933</v>
       </c>
       <c r="X26" t="n">
-        <v>1727.310500316689</v>
+        <v>899.4405469429066</v>
       </c>
       <c r="Y26" t="n">
-        <v>1321.973230271579</v>
+        <v>899.4405469429066</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C27" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D27" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E27" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F27" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G27" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H27" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I27" t="n">
-        <v>44.35863542273854</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J27" t="n">
-        <v>316.0561247023296</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K27" t="n">
-        <v>316.0561247023296</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L27" t="n">
-        <v>772.8420314050604</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M27" t="n">
-        <v>850.0084995511718</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="N27" t="n">
-        <v>1306.794406253903</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="O27" t="n">
         <v>1306.794406253903</v>
@@ -6324,7 +6326,7 @@
         <v>1306.794406253903</v>
       </c>
       <c r="Q27" t="n">
-        <v>1763.580312956634</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R27" t="n">
         <v>1845.599623041337</v>
@@ -6333,7 +6335,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T27" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U27" t="n">
         <v>1437.627243819906</v>
@@ -6342,13 +6344,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W27" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X27" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y27" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>804.4350722677784</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="C28" t="n">
-        <v>632.4625091466944</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="D28" t="n">
-        <v>469.1457362734651</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="E28" t="n">
-        <v>302.9375304263186</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F28" t="n">
-        <v>302.9375304263186</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G28" t="n">
-        <v>136.6805607205508</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H28" t="n">
         <v>136.6805607205508</v>
       </c>
       <c r="I28" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J28" t="n">
-        <v>36.91199246082674</v>
+        <v>77.3672451467865</v>
       </c>
       <c r="K28" t="n">
-        <v>263.4395936666639</v>
+        <v>303.8948463526237</v>
       </c>
       <c r="L28" t="n">
-        <v>618.1289149610848</v>
+        <v>303.8948463526237</v>
       </c>
       <c r="M28" t="n">
-        <v>1009.314709931336</v>
+        <v>695.0806413228745</v>
       </c>
       <c r="N28" t="n">
-        <v>1386.806220807371</v>
+        <v>1072.57215219891</v>
       </c>
       <c r="O28" t="n">
-        <v>1742.234349487134</v>
+        <v>1428.000280878673</v>
       </c>
       <c r="P28" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q28" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R28" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S28" t="n">
-        <v>1675.464575560472</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T28" t="n">
-        <v>1675.464575560472</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U28" t="n">
-        <v>1518.87640492601</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="V28" t="n">
-        <v>1237.164937534039</v>
+        <v>844.9383414538618</v>
       </c>
       <c r="W28" t="n">
-        <v>1237.164937534039</v>
+        <v>844.9383414538618</v>
       </c>
       <c r="X28" t="n">
-        <v>994.6010409798441</v>
+        <v>844.9383414538618</v>
       </c>
       <c r="Y28" t="n">
-        <v>994.6010409798441</v>
+        <v>618.5955731436038</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>868.151784858078</v>
+        <v>1014.031259917554</v>
       </c>
       <c r="C29" t="n">
-        <v>441.2510548713781</v>
+        <v>1014.031259917554</v>
       </c>
       <c r="D29" t="n">
-        <v>441.2510548713781</v>
+        <v>1014.031259917554</v>
       </c>
       <c r="E29" t="n">
-        <v>441.2510548713781</v>
+        <v>588.0543200654114</v>
       </c>
       <c r="F29" t="n">
-        <v>441.2510548713781</v>
+        <v>588.0543200654114</v>
       </c>
       <c r="G29" t="n">
-        <v>36.91199246082674</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H29" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="I29" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J29" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K29" t="n">
-        <v>36.91199246082674</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L29" t="n">
-        <v>36.91199246082674</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="M29" t="n">
-        <v>36.91199246082674</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="N29" t="n">
-        <v>493.6978991635576</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="O29" t="n">
-        <v>950.4838058662885</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P29" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q29" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R29" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S29" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T29" t="n">
-        <v>1520.30675795911</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U29" t="n">
-        <v>1261.951848555523</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V29" t="n">
-        <v>1261.951848555523</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W29" t="n">
-        <v>1261.951848555523</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X29" t="n">
-        <v>1261.951848555523</v>
+        <v>1433.879624209084</v>
       </c>
       <c r="Y29" t="n">
-        <v>1261.951848555523</v>
+        <v>1433.879624209084</v>
       </c>
     </row>
     <row r="30">
@@ -6516,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C30" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D30" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E30" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F30" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G30" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H30" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I30" t="n">
-        <v>44.35863542273858</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J30" t="n">
-        <v>44.35863542273858</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K30" t="n">
-        <v>44.35863542273858</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="L30" t="n">
-        <v>44.35863542273858</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="M30" t="n">
-        <v>501.1445421254695</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="N30" t="n">
-        <v>957.9304488282003</v>
+        <v>1222.18129514588</v>
       </c>
       <c r="O30" t="n">
-        <v>1414.716355530931</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P30" t="n">
-        <v>1414.716355530931</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q30" t="n">
-        <v>1763.580312956634</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R30" t="n">
         <v>1845.599623041337</v>
@@ -6570,7 +6572,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T30" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U30" t="n">
         <v>1437.627243819906</v>
@@ -6579,13 +6581,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W30" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X30" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y30" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1020.32454672534</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C31" t="n">
-        <v>848.3519836042556</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D31" t="n">
-        <v>685.0352107310263</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E31" t="n">
-        <v>518.8270048838798</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F31" t="n">
-        <v>346.9652306584402</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G31" t="n">
-        <v>180.7082609526723</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H31" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I31" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J31" t="n">
         <v>94.40332068498475</v>
@@ -6628,16 +6630,16 @@
         <v>675.6202431852428</v>
       </c>
       <c r="M31" t="n">
-        <v>695.080641322875</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N31" t="n">
-        <v>1072.572152198911</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O31" t="n">
-        <v>1428.000280878674</v>
+        <v>1799.725677711293</v>
       </c>
       <c r="P31" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q31" t="n">
         <v>1845.599623041337</v>
@@ -6646,25 +6648,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S31" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T31" t="n">
-        <v>1436.833283747663</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U31" t="n">
-        <v>1436.833283747663</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V31" t="n">
-        <v>1436.833283747663</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W31" t="n">
-        <v>1436.833283747663</v>
+        <v>1779.165748561582</v>
       </c>
       <c r="X31" t="n">
-        <v>1436.833283747663</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1210.490515437405</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1167.396349346219</v>
+        <v>887.1053432625264</v>
       </c>
       <c r="C32" t="n">
-        <v>1167.396349346219</v>
+        <v>460.2046132758265</v>
       </c>
       <c r="D32" t="n">
-        <v>744.1037285312193</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E32" t="n">
-        <v>462.0361742714265</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F32" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G32" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H32" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I32" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J32" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K32" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L32" t="n">
         <v>493.6978991635576</v>
       </c>
       <c r="M32" t="n">
-        <v>950.4838058662885</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="N32" t="n">
-        <v>950.4838058662885</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="O32" t="n">
-        <v>1388.813716338606</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="P32" t="n">
         <v>1845.599623041337</v>
@@ -6728,22 +6730,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T32" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U32" t="n">
-        <v>1587.244713637749</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="V32" t="n">
-        <v>1587.244713637749</v>
+        <v>1292.442613307636</v>
       </c>
       <c r="W32" t="n">
-        <v>1587.244713637749</v>
+        <v>1292.442613307636</v>
       </c>
       <c r="X32" t="n">
-        <v>1587.244713637749</v>
+        <v>1292.442613307636</v>
       </c>
       <c r="Y32" t="n">
-        <v>1587.244713637749</v>
+        <v>887.1053432625264</v>
       </c>
     </row>
     <row r="33">
@@ -6753,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C33" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D33" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E33" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F33" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G33" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H33" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I33" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J33" t="n">
-        <v>308.6094817404178</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K33" t="n">
-        <v>765.3953884431487</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L33" t="n">
-        <v>765.3953884431487</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="M33" t="n">
-        <v>765.3953884431487</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N33" t="n">
-        <v>765.3953884431487</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="O33" t="n">
-        <v>850.0084995511718</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="P33" t="n">
-        <v>1306.794406253903</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q33" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R33" t="n">
         <v>1845.599623041337</v>
@@ -6807,7 +6809,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T33" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U33" t="n">
         <v>1437.627243819906</v>
@@ -6816,13 +6818,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W33" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X33" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y33" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1020.32454672534</v>
+        <v>580.6268020276829</v>
       </c>
       <c r="C34" t="n">
-        <v>848.3519836042556</v>
+        <v>408.6542389065988</v>
       </c>
       <c r="D34" t="n">
-        <v>685.0352107310263</v>
+        <v>408.6542389065988</v>
       </c>
       <c r="E34" t="n">
-        <v>518.8270048838798</v>
+        <v>408.6542389065988</v>
       </c>
       <c r="F34" t="n">
-        <v>346.9652306584402</v>
+        <v>236.7924646811593</v>
       </c>
       <c r="G34" t="n">
-        <v>180.7082609526723</v>
+        <v>70.5354949753914</v>
       </c>
       <c r="H34" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I34" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J34" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K34" t="n">
-        <v>36.91199246082674</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L34" t="n">
-        <v>391.6013137552475</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M34" t="n">
-        <v>695.080641322875</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N34" t="n">
-        <v>1072.572152198911</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O34" t="n">
-        <v>1428.000280878674</v>
+        <v>1799.725677711293</v>
       </c>
       <c r="P34" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q34" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R34" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S34" t="n">
-        <v>1675.464575560472</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T34" t="n">
-        <v>1432.125227786372</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U34" t="n">
-        <v>1151.940779286676</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="V34" t="n">
-        <v>1151.940779286676</v>
+        <v>823.1906985818778</v>
       </c>
       <c r="W34" t="n">
-        <v>1151.940779286676</v>
+        <v>823.1906985818778</v>
       </c>
       <c r="X34" t="n">
-        <v>1151.940779286676</v>
+        <v>580.6268020276829</v>
       </c>
       <c r="Y34" t="n">
-        <v>1151.940779286676</v>
+        <v>580.6268020276829</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>888.9369042581264</v>
+        <v>463.8127224475267</v>
       </c>
       <c r="C35" t="n">
-        <v>462.0361742714265</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D35" t="n">
-        <v>462.0361742714265</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E35" t="n">
-        <v>462.0361742714265</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F35" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G35" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H35" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I35" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J35" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K35" t="n">
-        <v>399.5154512777223</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L35" t="n">
-        <v>399.5154512777223</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="M35" t="n">
-        <v>856.3013579804531</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="N35" t="n">
-        <v>1313.087264683184</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="O35" t="n">
-        <v>1769.873171385915</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P35" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q35" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R35" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S35" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T35" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U35" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V35" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W35" t="n">
-        <v>1344.840979214824</v>
+        <v>1449.208273341683</v>
       </c>
       <c r="X35" t="n">
-        <v>1308.785268549656</v>
+        <v>1288.998356784166</v>
       </c>
       <c r="Y35" t="n">
-        <v>1308.785268549656</v>
+        <v>883.6610867390567</v>
       </c>
     </row>
     <row r="36">
@@ -6996,43 +6998,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D36" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E36" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F36" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G36" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H36" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I36" t="n">
-        <v>44.35863542273858</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J36" t="n">
-        <v>316.0561247023297</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K36" t="n">
-        <v>772.8420314050605</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L36" t="n">
-        <v>1229.627938107791</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="M36" t="n">
-        <v>1229.627938107791</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="N36" t="n">
-        <v>1229.627938107791</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="O36" t="n">
-        <v>1306.794406253902</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="P36" t="n">
-        <v>1763.580312956633</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q36" t="n">
         <v>1763.580312956633</v>
@@ -7069,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>524.5425982991959</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C37" t="n">
-        <v>352.5700351781119</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D37" t="n">
-        <v>352.5700351781119</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E37" t="n">
-        <v>352.5700351781119</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F37" t="n">
-        <v>180.7082609526723</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G37" t="n">
         <v>180.7082609526723</v>
       </c>
       <c r="H37" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I37" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J37" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K37" t="n">
         <v>263.4395936666639</v>
@@ -7123,22 +7125,22 @@
         <v>1675.464575560472</v>
       </c>
       <c r="T37" t="n">
-        <v>1432.125227786372</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="U37" t="n">
         <v>1151.940779286676</v>
       </c>
       <c r="V37" t="n">
-        <v>993.4492631636488</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="W37" t="n">
-        <v>993.4492631636488</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="X37" t="n">
-        <v>750.8853666094539</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="Y37" t="n">
-        <v>524.5425982991959</v>
+        <v>1151.940779286676</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>463.8127224475267</v>
+        <v>1292.35217653412</v>
       </c>
       <c r="C38" t="n">
-        <v>36.91199246082674</v>
+        <v>1292.35217653412</v>
       </c>
       <c r="D38" t="n">
-        <v>36.91199246082674</v>
+        <v>1292.35217653412</v>
       </c>
       <c r="E38" t="n">
-        <v>36.91199246082674</v>
+        <v>866.3752366819779</v>
       </c>
       <c r="F38" t="n">
-        <v>36.91199246082674</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="G38" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H38" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I38" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J38" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K38" t="n">
-        <v>399.5154512777223</v>
+        <v>814.4714747539723</v>
       </c>
       <c r="L38" t="n">
-        <v>399.5154512777223</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="M38" t="n">
-        <v>814.4714747539724</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="N38" t="n">
-        <v>814.4714747539724</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="O38" t="n">
         <v>1271.257381456703</v>
@@ -7199,25 +7201,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S38" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T38" t="n">
-        <v>1520.30675795911</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U38" t="n">
-        <v>1261.951848555523</v>
+        <v>1587.244713637749</v>
       </c>
       <c r="V38" t="n">
-        <v>1261.951848555523</v>
+        <v>1292.35217653412</v>
       </c>
       <c r="W38" t="n">
-        <v>883.6610867390567</v>
+        <v>1292.35217653412</v>
       </c>
       <c r="X38" t="n">
-        <v>883.6610867390567</v>
+        <v>1292.35217653412</v>
       </c>
       <c r="Y38" t="n">
-        <v>883.6610867390567</v>
+        <v>1292.35217653412</v>
       </c>
     </row>
     <row r="39">
@@ -7233,46 +7235,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D39" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E39" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F39" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G39" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H39" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I39" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J39" t="n">
-        <v>36.91199246082674</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K39" t="n">
-        <v>475.2419029331439</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L39" t="n">
-        <v>475.2419029331439</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M39" t="n">
-        <v>932.0278096358747</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N39" t="n">
-        <v>1388.813716338606</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="O39" t="n">
-        <v>1388.813716338606</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="P39" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q39" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R39" t="n">
         <v>1845.599623041337</v>
@@ -7306,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>618.5955731436038</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C40" t="n">
-        <v>618.5955731436038</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D40" t="n">
-        <v>618.5955731436038</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E40" t="n">
-        <v>618.5955731436038</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F40" t="n">
-        <v>446.7337989181643</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G40" t="n">
-        <v>280.4768292123964</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H40" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I40" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J40" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K40" t="n">
         <v>263.4395936666639</v>
       </c>
       <c r="L40" t="n">
-        <v>303.8948463526241</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M40" t="n">
-        <v>695.080641322875</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N40" t="n">
-        <v>1072.572152198911</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O40" t="n">
-        <v>1428.000280878674</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P40" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q40" t="n">
         <v>1845.599623041337</v>
@@ -7357,25 +7359,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S40" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T40" t="n">
-        <v>1602.260275267237</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="U40" t="n">
-        <v>1322.075826767541</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V40" t="n">
-        <v>1040.36435937557</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="W40" t="n">
-        <v>765.5119555480831</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="X40" t="n">
-        <v>765.5119555480831</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="Y40" t="n">
-        <v>765.5119555480831</v>
+        <v>1151.940779286676</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1068.261843876056</v>
+        <v>1029.359909050153</v>
       </c>
       <c r="C41" t="n">
-        <v>641.3611138893564</v>
+        <v>602.4591790634536</v>
       </c>
       <c r="D41" t="n">
-        <v>462.0361742714265</v>
+        <v>179.1665582484538</v>
       </c>
       <c r="E41" t="n">
-        <v>462.0361742714265</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F41" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G41" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H41" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I41" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J41" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K41" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L41" t="n">
-        <v>493.6978991635576</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="M41" t="n">
-        <v>950.4838058662885</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="N41" t="n">
-        <v>1389.514143537154</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="O41" t="n">
-        <v>1389.514143537154</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="P41" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q41" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R41" t="n">
         <v>1845.599623041337</v>
@@ -7445,16 +7447,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V41" t="n">
-        <v>1488.110208167586</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W41" t="n">
-        <v>1488.110208167586</v>
+        <v>1449.208273341683</v>
       </c>
       <c r="X41" t="n">
-        <v>1488.110208167586</v>
+        <v>1449.208273341683</v>
       </c>
       <c r="Y41" t="n">
-        <v>1488.110208167586</v>
+        <v>1449.208273341683</v>
       </c>
     </row>
     <row r="42">
@@ -7464,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C42" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D42" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E42" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F42" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G42" t="n">
-        <v>90.28808569851735</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H42" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I42" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J42" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="K42" t="n">
-        <v>501.1445421254695</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="L42" t="n">
-        <v>932.027809635875</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="M42" t="n">
-        <v>932.027809635875</v>
+        <v>501.1445421254694</v>
       </c>
       <c r="N42" t="n">
-        <v>932.027809635875</v>
+        <v>957.9304488282003</v>
       </c>
       <c r="O42" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P42" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q42" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R42" t="n">
         <v>1845.599623041337</v>
@@ -7518,7 +7520,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T42" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U42" t="n">
         <v>1437.627243819906</v>
@@ -7527,13 +7529,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W42" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X42" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y42" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="43">
@@ -7543,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>36.91199246082674</v>
+        <v>106.4393219715641</v>
       </c>
       <c r="C43" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D43" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E43" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F43" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G43" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H43" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I43" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J43" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K43" t="n">
-        <v>320.9309218908219</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L43" t="n">
-        <v>675.6202431852428</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M43" t="n">
-        <v>1066.806038155494</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N43" t="n">
-        <v>1072.572152198911</v>
+        <v>1386.806220807371</v>
       </c>
       <c r="O43" t="n">
-        <v>1428.000280878674</v>
+        <v>1742.234349487134</v>
       </c>
       <c r="P43" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q43" t="n">
         <v>1845.599623041337</v>
@@ -7594,25 +7596,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S43" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T43" t="n">
-        <v>1432.125227786372</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="U43" t="n">
-        <v>1151.940779286676</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V43" t="n">
-        <v>870.229311894705</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W43" t="n">
-        <v>595.376908067218</v>
+        <v>765.5119555480826</v>
       </c>
       <c r="X43" t="n">
-        <v>352.8130115130231</v>
+        <v>522.9480589938877</v>
       </c>
       <c r="Y43" t="n">
-        <v>126.4702432027651</v>
+        <v>296.6052906836297</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>885.3287950864262</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>885.3287950864262</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>932.7282368344228</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>932.7282368344228</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1687.057414831189</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1290.666065131536</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1290.666065131536</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>885.3287950864262</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>501.1445421254694</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1764.275375602591</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1437.627243819906</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>1232.654104959172</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1083.344225850373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>911.3716627292888</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>748.0548898560595</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>581.846684008913</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>409.9849097834734</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>243.7279400777056</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>99.93167158585996</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1072.57215219891</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1428.000280878673</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1555.22166195441</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1555.22166195441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1273.510194562439</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1273.510194562439</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>1273.510194562439</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>1273.510194562439</v>
       </c>
     </row>
   </sheetData>
@@ -9401,13 +9403,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>112.2559661033163</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
         <v>498.6795285947802</v>
@@ -9416,13 +9418,13 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>457.4303624918454</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,28 +9479,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N21" t="n">
-        <v>381.2527255747679</v>
+        <v>106.8108172115448</v>
       </c>
       <c r="O21" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9556,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
         <v>249.7804132464869</v>
@@ -9574,7 +9576,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7901678844537</v>
+        <v>68.71811917318252</v>
       </c>
       <c r="Q22" t="n">
         <v>24.61956276478495</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>114.8034077411299</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M23" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>37.27962283444602</v>
+        <v>362.0008377727921</v>
       </c>
       <c r="O23" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P23" t="n">
-        <v>498.9752675705655</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,28 +9713,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M24" t="n">
-        <v>484.4966862726622</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N24" t="n">
-        <v>189.6586051758914</v>
+        <v>182.1367435982031</v>
       </c>
       <c r="O24" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9793,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K25" t="n">
         <v>249.7804132464869</v>
@@ -9808,10 +9810,10 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O25" t="n">
-        <v>381.5174992961649</v>
+        <v>192.3923090257622</v>
       </c>
       <c r="P25" t="n">
-        <v>68.71811917318276</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
         <v>24.61956276478495</v>
@@ -9872,22 +9874,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L26" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
-        <v>37.43126289943181</v>
+        <v>362.152477837778</v>
       </c>
       <c r="N26" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O26" t="n">
-        <v>457.2459600376384</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
         <v>37.5753618102313</v>
@@ -9948,25 +9950,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L27" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>101.0427079326425</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N27" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>383.0815870834489</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10030,13 +10032,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>20.63675598390187</v>
+        <v>61.50064758588144</v>
       </c>
       <c r="K28" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
-        <v>380.1908016072373</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M28" t="n">
         <v>417.7126065281028</v>
@@ -10048,10 +10050,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>126.7901678844537</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10112,10 +10114,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>363.0332573709691</v>
       </c>
       <c r="M29" t="n">
         <v>37.43126289943181</v>
@@ -10124,16 +10126,16 @@
         <v>498.6795285947802</v>
       </c>
       <c r="O29" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P29" t="n">
-        <v>481.0403493565598</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>22.39923383333334</v>
@@ -10197,19 +10199,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>484.4966862726622</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N30" t="n">
-        <v>482.7429339738759</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O30" t="n">
-        <v>484.5717954825564</v>
+        <v>108.6396787202253</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.1348740725163</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R30" t="n">
         <v>106.5207073584907</v>
@@ -10276,7 +10278,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>42.2324077072759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
@@ -10285,10 +10287,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>68.71811917318252</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10352,19 +10354,19 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
-        <v>499.7119481929572</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M32" t="n">
         <v>498.831168659766</v>
       </c>
       <c r="N32" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O32" t="n">
-        <v>480.1484446815972</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
-        <v>498.9752675705655</v>
+        <v>480.3328471358044</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10425,31 +10427,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O33" t="n">
-        <v>108.6396787202253</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P33" t="n">
-        <v>483.1707469651629</v>
+        <v>464.5283265304018</v>
       </c>
       <c r="Q33" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,16 +10506,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>329.1202152123216</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N34" t="n">
         <v>402.0534574160406</v>
@@ -10522,10 +10524,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>315.9153581548562</v>
+        <v>68.71811917318252</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10586,28 +10588,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M35" t="n">
-        <v>498.831168659766</v>
+        <v>456.5787613602905</v>
       </c>
       <c r="N35" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>114.0667271187383</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,31 +10661,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O36" t="n">
-        <v>101.1178171425365</v>
+        <v>383.0815870834488</v>
       </c>
       <c r="P36" t="n">
-        <v>483.1707469651629</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R36" t="n">
         <v>106.5207073584907</v>
@@ -10759,7 +10761,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>126.7901678844537</v>
+        <v>126.7901678844535</v>
       </c>
       <c r="Q37" t="n">
         <v>24.61956276478495</v>
@@ -10823,22 +10825,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>454.912099255668</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M38" t="n">
-        <v>456.5787613602906</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P38" t="n">
-        <v>498.9752675705655</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
@@ -10896,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>465.1567191589062</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>99.7167686251434</v>
       </c>
       <c r="Q39" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10984,7 +10986,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>62.78265149768123</v>
+        <v>191.0656113368345</v>
       </c>
       <c r="M40" t="n">
         <v>417.7126065281028</v>
@@ -10999,7 +11001,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>499.7119481929572</v>
+        <v>458.1670431142371</v>
       </c>
       <c r="M41" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>480.7446103807745</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,19 +11141,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>457.7507104621139</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O42" t="n">
-        <v>484.5717954825564</v>
+        <v>375.55972550576</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11160,7 +11162,7 @@
         <v>484.1469440493127</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K43" t="n">
         <v>249.7804132464869</v>
@@ -11227,16 +11229,16 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N43" t="n">
-        <v>26.57325859521377</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>126.7901678844535</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M44" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>114.4784903637083</v>
       </c>
       <c r="O44" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11370,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
@@ -11382,16 +11384,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>456.5786519614262</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -11452,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>22.57543989148582</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
-        <v>20.74890097560039</v>
+        <v>26.57325859521331</v>
       </c>
       <c r="O46" t="n">
-        <v>22.49918749842445</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23966,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>266.5191670199141</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -24020,7 +24022,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>105.4152466726876</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -24029,13 +24031,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -24136,16 +24138,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>219.5845164476945</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>185.4558099288065</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
@@ -24218,10 +24220,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>400.2956717864458</v>
+        <v>37.77244695348412</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
         <v>34.5479025439635</v>
@@ -24254,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>236.0449929785563</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24364,7 +24366,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>136.2575609560327</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>49.70374399089712</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24440,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
@@ -24497,19 +24499,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>138.6651288121503</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>217.2472704341542</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>122.3603150865817</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>21.53016644326414</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>25.78781758814455</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>184.102364742576</v>
       </c>
       <c r="H29" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -24743,7 +24745,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>4.660975401678598</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -24898,10 +24900,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>206.334344054255</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24914,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>142.4702917364262</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>400.2956717864458</v>
@@ -24968,13 +24970,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>280.7767566440144</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
@@ -24983,7 +24985,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>57.96423878922178</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>109.0710383175081</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -25163,7 +25165,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>400.2956717864458</v>
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
         <v>218.7163152458132</v>
@@ -25217,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>371.9076452854142</v>
+        <v>248.9949814519883</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25309,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>57.96423878922224</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25369,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>121.9877517562543</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25388,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>294.8896947407055</v>
@@ -25439,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>61.97090899242062</v>
       </c>
       <c r="W38" t="n">
-        <v>17.91958200435528</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>42.81709044451057</v>
+        <v>57.96423878922224</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -25631,13 +25633,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>241.5280043850992</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>280.8851503238702</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
@@ -25685,10 +25687,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.60164079042603</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>101.4207812742432</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -25834,7 +25836,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25868,13 +25870,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
@@ -25922,16 +25924,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>196.957734596967</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25941,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>140.4611363452985</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>194.556163395115</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>36.38140024334389</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>466083.0460925653</v>
+        <v>466083.0460925652</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>466083.0460925652</v>
+        <v>466083.0460925651</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>466083.0460925652</v>
+        <v>466083.0460925653</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>466083.0460925653</v>
+        <v>466083.0460925652</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>466083.0460925653</v>
+        <v>466083.0460925652</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>466083.0460925653</v>
+        <v>466083.0460925654</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>60870.09540019949</v>
+        <v>466083.0460925651</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7854.205858090253</v>
+        <v>7854.205858090252</v>
       </c>
       <c r="C2" t="n">
+        <v>7854.205858090251</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7854.205858090252</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7854.205858090251</v>
+      </c>
+      <c r="F2" t="n">
         <v>7854.205858090254</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7854.205858090251</v>
-      </c>
-      <c r="E2" t="n">
-        <v>7854.205858090252</v>
-      </c>
-      <c r="F2" t="n">
-        <v>7854.205858090253</v>
       </c>
       <c r="G2" t="n">
         <v>7854.205858090253</v>
       </c>
       <c r="H2" t="n">
-        <v>60139.74788291164</v>
+        <v>60139.7478829116</v>
       </c>
       <c r="I2" t="n">
         <v>60139.74788291162</v>
       </c>
       <c r="J2" t="n">
-        <v>60139.74788291164</v>
+        <v>60139.74788291162</v>
       </c>
       <c r="K2" t="n">
-        <v>60139.74788291165</v>
+        <v>60139.74788291162</v>
       </c>
       <c r="L2" t="n">
+        <v>60139.74788291163</v>
+      </c>
+      <c r="M2" t="n">
+        <v>60139.74788291163</v>
+      </c>
+      <c r="N2" t="n">
         <v>60139.74788291162</v>
-      </c>
-      <c r="M2" t="n">
-        <v>60139.74788291162</v>
-      </c>
-      <c r="N2" t="n">
-        <v>60139.74788291161</v>
       </c>
       <c r="O2" t="n">
         <v>60139.74788291164</v>
       </c>
       <c r="P2" t="n">
-        <v>7854.205858090254</v>
+        <v>60139.74788291162</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>109062.9413241932</v>
       </c>
     </row>
     <row r="4">
@@ -26433,7 +26435,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>400.10362737084</v>
+        <v>400.1036273708401</v>
       </c>
       <c r="I4" t="n">
         <v>400.1036273708401</v>
@@ -26457,7 +26459,7 @@
         <v>400.1036273708401</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>400.1036273708401</v>
       </c>
     </row>
     <row r="5">
@@ -26485,31 +26487,31 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="I5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="J5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="K5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="L5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="M5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="N5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="O5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>28053.11427022831</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>-25773.39414190975</v>
       </c>
       <c r="E6" t="n">
-        <v>7854.205858090252</v>
+        <v>7854.205858090251</v>
       </c>
       <c r="F6" t="n">
-        <v>7854.205858090253</v>
+        <v>7854.205858090254</v>
       </c>
       <c r="G6" t="n">
         <v>7854.205858090253</v>
       </c>
       <c r="H6" t="n">
-        <v>-92803.31718797755</v>
+        <v>-92803.31718797756</v>
       </c>
       <c r="I6" t="n">
         <v>31686.52998531247</v>
       </c>
       <c r="J6" t="n">
+        <v>31686.52998531247</v>
+      </c>
+      <c r="K6" t="n">
+        <v>31686.52998531246</v>
+      </c>
+      <c r="L6" t="n">
         <v>31686.52998531248</v>
       </c>
-      <c r="K6" t="n">
-        <v>31686.5299853125</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
+        <v>31686.52998531248</v>
+      </c>
+      <c r="N6" t="n">
         <v>31686.52998531246</v>
-      </c>
-      <c r="M6" t="n">
-        <v>31686.52998531246</v>
-      </c>
-      <c r="N6" t="n">
-        <v>31686.52998531245</v>
       </c>
       <c r="O6" t="n">
         <v>31686.52998531249</v>
       </c>
       <c r="P6" t="n">
-        <v>7854.205858090254</v>
+        <v>-77376.41133888075</v>
       </c>
     </row>
   </sheetData>
@@ -26805,31 +26807,31 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="I4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="K4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
     </row>
   </sheetData>
@@ -27027,7 +27029,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
     </row>
   </sheetData>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
     </row>
   </sheetData>
@@ -36121,28 +36123,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>76.49136530850691</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N21" t="n">
-        <v>359.9096973612262</v>
+        <v>85.46778899800312</v>
       </c>
       <c r="O21" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>82.84778796434657</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K22" t="n">
         <v>228.8157587937749</v>
@@ -36294,7 +36296,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P22" t="n">
-        <v>104.4093672264672</v>
+        <v>46.33731851519604</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>76.49136530850697</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>324.7212149383461</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P23" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M24" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N24" t="n">
-        <v>168.3155769623498</v>
+        <v>160.7937153846614</v>
       </c>
       <c r="O24" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>228.8157587937749</v>
@@ -36528,10 +36530,10 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O25" t="n">
-        <v>359.0183117977405</v>
+        <v>169.8931215273378</v>
       </c>
       <c r="P25" t="n">
-        <v>46.33731851519627</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,22 +36594,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L26" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>324.7212149383461</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O26" t="n">
-        <v>419.8550006816143</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36668,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L27" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>77.9459274203145</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N27" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>359.9096973612267</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R27" t="n">
         <v>82.84778796434657</v>
@@ -36750,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>40.86389160197957</v>
       </c>
       <c r="K28" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L28" t="n">
-        <v>358.2720417115361</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>395.137166636617</v>
@@ -36768,10 +36770,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P28" t="n">
-        <v>104.4093672264672</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36834,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>324.7212149383461</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O29" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>443.4649875463285</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,19 +36919,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N30" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O30" t="n">
-        <v>461.3999057603342</v>
+        <v>85.46778899800312</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>352.3878357835378</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R30" t="n">
         <v>82.84778796434657</v>
@@ -36996,7 +36998,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M31" t="n">
-        <v>19.65696781579008</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N31" t="n">
         <v>381.3045564404402</v>
@@ -37005,10 +37007,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P31" t="n">
-        <v>293.5345574968697</v>
+        <v>46.33731851519604</v>
       </c>
       <c r="Q31" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,19 +37074,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M32" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
         <v>442.7574853255731</v>
-      </c>
-      <c r="P32" t="n">
-        <v>461.3999057603342</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O33" t="n">
-        <v>85.46778899800312</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P33" t="n">
-        <v>461.3999057603342</v>
+        <v>442.7574853255731</v>
       </c>
       <c r="Q33" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L34" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M34" t="n">
-        <v>306.5447753208358</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N34" t="n">
         <v>381.3045564404402</v>
@@ -37242,10 +37244,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P34" t="n">
-        <v>293.5345574968697</v>
+        <v>46.33731851519604</v>
       </c>
       <c r="Q34" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37308,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M35" t="n">
-        <v>461.3999057603342</v>
+        <v>419.1474984608586</v>
       </c>
       <c r="N35" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>76.49136530850697</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O36" t="n">
-        <v>77.94592742031428</v>
+        <v>359.9096973612266</v>
       </c>
       <c r="P36" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R36" t="n">
         <v>82.84778796434657</v>
@@ -37479,7 +37481,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P37" t="n">
-        <v>104.4093672264672</v>
+        <v>104.409367226467</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37543,22 +37545,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>419.1474984608586</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M38" t="n">
-        <v>419.1474984608587</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>442.7574853255729</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>77.94592742031473</v>
       </c>
       <c r="Q39" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37704,7 +37706,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L40" t="n">
-        <v>40.86389160198001</v>
+        <v>169.1468514411333</v>
       </c>
       <c r="M40" t="n">
         <v>395.137166636617</v>
@@ -37719,7 +37721,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>461.3999057603342</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="M41" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>443.4649875463285</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37861,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>435.2356237478843</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O42" t="n">
-        <v>461.3999057603342</v>
+        <v>352.3878357835378</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>228.8157587937749</v>
@@ -37947,16 +37949,16 @@
         <v>395.137166636617</v>
       </c>
       <c r="N43" t="n">
-        <v>5.82435761961338</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O43" t="n">
         <v>359.0183117977405</v>
       </c>
       <c r="P43" t="n">
-        <v>293.5345574968697</v>
+        <v>104.409367226467</v>
       </c>
       <c r="Q43" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>77.19886752926232</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38102,16 +38104,16 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>435.2356237478845</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>5.824357619612921</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17199.59406244381</v>
+        <v>-26301.42120132988</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24061417.37221272</v>
+        <v>23394577.99326136</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14486812.97423426</v>
+        <v>13833243.698924</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3180226.543901492</v>
+        <v>3513282.052085488</v>
       </c>
     </row>
     <row r="11">
@@ -1849,13 +1849,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>175.0364284967273</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>52.8423323053137</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="19">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>94.73608632623439</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2083,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>155.1980034337069</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>142.7696490449854</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H21" t="n">
-        <v>52.84233230531348</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>125.9340118190876</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>54.6824476598464</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>362.5232248329617</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>106.8056168372341</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2459,7 +2459,7 @@
         <v>202.9234074721264</v>
       </c>
       <c r="W24" t="n">
-        <v>194.5561633951149</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X24" t="n">
         <v>161.8425727710037</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>42.09444105482045</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>222.400135798315</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>210.1292380228251</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
         <v>34.5479025439635</v>
@@ -2608,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>190.355528409776</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>42.09444105482045</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,13 +2772,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>257.3641862747872</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>401.6953115779395</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>216.1933070438698</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>34.5479025439635</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H30" t="n">
-        <v>52.84233230531348</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2952,19 +2952,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>93.74515553083337</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>65.7695357349571</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3031,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>171.5578058653738</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
         <v>218.7163152458132</v>
@@ -3088,16 +3088,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>73.13776408099858</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3201,10 +3201,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>33.28726748941902</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>51.72466947528867</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>244.6771405667886</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>158.6078173919419</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3356,13 +3356,13 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F36" t="n">
-        <v>92.70937201392486</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G36" t="n">
         <v>93.11323406457203</v>
       </c>
       <c r="H36" t="n">
-        <v>52.84233230531351</v>
+        <v>52.8423323053137</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3000702357228</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>88.66266823451896</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3505,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>106.805616837234</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>291.9436117325924</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3000702357228</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -3678,7 +3678,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>53.1407048038577</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>140.8320201297508</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>106.805616837234</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3900,13 +3900,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>68.83205621562998</v>
+        <v>160.2516983185682</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>156.956786128046</v>
+        <v>189.224355275352</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -4146,16 +4146,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>116.1540947622172</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.38948233378289</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1311.305734938569</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1311.305734938569</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>888.013114123569</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1668.795149812319</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1311.305734938569</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1311.305734938569</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1311.305734938569</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1311.305734938569</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>382.689621525072</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>277.9876877980092</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>184.3418574809133</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>90.28808569851735</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1764.275375602591</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1437.627243819906</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1232.654104959172</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>132.6050089519726</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>132.6050089519726</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>132.6050089519726</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>132.6050089519726</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>132.6050089519726</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>132.6050089519726</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>303.8948463526241</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1348.241513747949</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1066.530046355978</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>791.6776425284911</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>549.1137459742962</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>322.7709776640382</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1043.871003296574</v>
+        <v>1289.667857496978</v>
       </c>
       <c r="C20" t="n">
-        <v>616.9702733098738</v>
+        <v>1289.667857496978</v>
       </c>
       <c r="D20" t="n">
-        <v>193.6776524948741</v>
+        <v>866.3752366819779</v>
       </c>
       <c r="E20" t="n">
-        <v>36.91199246082673</v>
+        <v>866.3752366819779</v>
       </c>
       <c r="F20" t="n">
-        <v>36.91199246082673</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="G20" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H20" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I20" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J20" t="n">
         <v>399.5154512777223</v>
@@ -5758,22 +5758,22 @@
         <v>399.5154512777223</v>
       </c>
       <c r="L20" t="n">
-        <v>399.5154512777223</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M20" t="n">
-        <v>399.5154512777223</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="N20" t="n">
-        <v>856.3013579804531</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="O20" t="n">
-        <v>856.3013579804531</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P20" t="n">
-        <v>1271.957808655251</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q20" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R20" t="n">
         <v>1845.599623041337</v>
@@ -5791,13 +5791,13 @@
         <v>1845.599623041337</v>
       </c>
       <c r="W20" t="n">
-        <v>1449.208273341683</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X20" t="n">
-        <v>1449.208273341683</v>
+        <v>1433.879624209084</v>
       </c>
       <c r="Y20" t="n">
-        <v>1043.871003296574</v>
+        <v>1289.667857496978</v>
       </c>
     </row>
     <row r="21">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C21" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D21" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E21" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F21" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G21" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H21" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I21" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J21" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K21" t="n">
-        <v>765.3953884431487</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="L21" t="n">
-        <v>1222.18129514588</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="M21" t="n">
-        <v>1678.96720184861</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="N21" t="n">
-        <v>1763.580312956633</v>
+        <v>393.2225928484409</v>
       </c>
       <c r="O21" t="n">
-        <v>1763.580312956633</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P21" t="n">
-        <v>1763.580312956633</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q21" t="n">
-        <v>1763.580312956633</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R21" t="n">
         <v>1845.599623041337</v>
@@ -5861,7 +5861,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T21" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U21" t="n">
         <v>1437.627243819906</v>
@@ -5870,13 +5870,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W21" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X21" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y21" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>302.9375304263186</v>
+        <v>164.1180650053597</v>
       </c>
       <c r="C22" t="n">
-        <v>302.9375304263186</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D22" t="n">
-        <v>302.9375304263186</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E22" t="n">
-        <v>302.9375304263186</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F22" t="n">
-        <v>302.9375304263186</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G22" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H22" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I22" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J22" t="n">
         <v>94.40332068498475</v>
@@ -5919,16 +5919,16 @@
         <v>675.6202431852428</v>
       </c>
       <c r="M22" t="n">
-        <v>1066.806038155494</v>
+        <v>985.6798532447758</v>
       </c>
       <c r="N22" t="n">
-        <v>1444.297549031529</v>
+        <v>1363.171364120812</v>
       </c>
       <c r="O22" t="n">
-        <v>1799.725677711293</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="P22" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q22" t="n">
         <v>1845.599623041337</v>
@@ -5946,16 +5946,16 @@
         <v>1104.902165973849</v>
       </c>
       <c r="V22" t="n">
-        <v>823.1906985818778</v>
+        <v>823.1906985818782</v>
       </c>
       <c r="W22" t="n">
-        <v>548.3382947543907</v>
+        <v>823.1906985818782</v>
       </c>
       <c r="X22" t="n">
-        <v>493.1034991383843</v>
+        <v>580.6268020276833</v>
       </c>
       <c r="Y22" t="n">
-        <v>493.1034991383843</v>
+        <v>354.2840337174254</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>403.097068049677</v>
+        <v>796.5779722300206</v>
       </c>
       <c r="C23" t="n">
-        <v>403.097068049677</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="D23" t="n">
-        <v>403.097068049677</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="E23" t="n">
-        <v>403.097068049677</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="F23" t="n">
-        <v>403.097068049677</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="G23" t="n">
-        <v>36.91199246082673</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H23" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I23" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J23" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K23" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L23" t="n">
-        <v>36.91199246082673</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M23" t="n">
-        <v>36.91199246082673</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="N23" t="n">
-        <v>358.3859952497894</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O23" t="n">
-        <v>815.1719019525202</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P23" t="n">
-        <v>1271.957808655251</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q23" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R23" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S23" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T23" t="n">
-        <v>1624.67405208597</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U23" t="n">
-        <v>1624.67405208597</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V23" t="n">
-        <v>1624.67405208597</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="W23" t="n">
-        <v>1228.282702386317</v>
+        <v>796.5779722300206</v>
       </c>
       <c r="X23" t="n">
-        <v>1228.282702386317</v>
+        <v>796.5779722300206</v>
       </c>
       <c r="Y23" t="n">
-        <v>822.945432341207</v>
+        <v>796.5779722300206</v>
       </c>
     </row>
     <row r="24">
@@ -6044,31 +6044,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C24" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D24" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E24" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F24" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G24" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H24" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I24" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J24" t="n">
-        <v>316.0561247023297</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K24" t="n">
         <v>772.8420314050604</v>
@@ -6098,7 +6098,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T24" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U24" t="n">
         <v>1437.627243819906</v>
@@ -6107,13 +6107,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W24" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X24" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y24" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="25">
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>372.20132845514</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="C25" t="n">
-        <v>200.228765334056</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D25" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E25" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F25" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G25" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H25" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I25" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J25" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K25" t="n">
-        <v>263.4395936666639</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L25" t="n">
-        <v>618.1289149610848</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="M25" t="n">
-        <v>1009.314709931336</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N25" t="n">
-        <v>1386.806220807371</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O25" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P25" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q25" t="n">
         <v>1845.599623041337</v>
@@ -6183,16 +6183,16 @@
         <v>1104.902165973849</v>
       </c>
       <c r="V25" t="n">
-        <v>823.1906985818778</v>
+        <v>823.1906985818782</v>
       </c>
       <c r="W25" t="n">
-        <v>598.544096765398</v>
+        <v>548.3382947543912</v>
       </c>
       <c r="X25" t="n">
-        <v>598.544096765398</v>
+        <v>305.7743982001963</v>
       </c>
       <c r="Y25" t="n">
-        <v>372.20132845514</v>
+        <v>79.43162988993831</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>899.4405469429066</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="C26" t="n">
-        <v>899.4405469429066</v>
+        <v>581.9289978219319</v>
       </c>
       <c r="D26" t="n">
-        <v>476.1479261279069</v>
+        <v>581.9289978219319</v>
       </c>
       <c r="E26" t="n">
-        <v>476.1479261279069</v>
+        <v>581.9289978219319</v>
       </c>
       <c r="F26" t="n">
-        <v>476.1479261279069</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="G26" t="n">
-        <v>71.80886371735552</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H26" t="n">
-        <v>71.80886371735552</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I26" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J26" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K26" t="n">
-        <v>493.6978991635576</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L26" t="n">
-        <v>493.6978991635576</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="M26" t="n">
-        <v>815.1719019525202</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="N26" t="n">
-        <v>1271.957808655251</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O26" t="n">
-        <v>1271.957808655251</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P26" t="n">
-        <v>1271.957808655251</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q26" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R26" t="n">
         <v>1845.599623041337</v>
@@ -6256,22 +6256,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T26" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U26" t="n">
-        <v>1845.599623041337</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="V26" t="n">
-        <v>1488.110208167586</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="W26" t="n">
-        <v>1091.718858467933</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="X26" t="n">
-        <v>899.4405469429066</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="Y26" t="n">
-        <v>899.4405469429066</v>
+        <v>1008.829727808632</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C27" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D27" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E27" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F27" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G27" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H27" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I27" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J27" t="n">
-        <v>36.91199246082673</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K27" t="n">
-        <v>493.6978991635576</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L27" t="n">
-        <v>493.6978991635576</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M27" t="n">
-        <v>950.4838058662883</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="N27" t="n">
-        <v>950.4838058662883</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O27" t="n">
-        <v>1306.794406253903</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P27" t="n">
-        <v>1306.794406253903</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q27" t="n">
-        <v>1763.580312956633</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R27" t="n">
         <v>1845.599623041337</v>
@@ -6335,7 +6335,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T27" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U27" t="n">
         <v>1437.627243819906</v>
@@ -6344,13 +6344,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W27" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X27" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y27" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="28">
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>618.5955731436038</v>
+        <v>79.43162988993831</v>
       </c>
       <c r="C28" t="n">
-        <v>618.5955731436038</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D28" t="n">
-        <v>618.5955731436038</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E28" t="n">
-        <v>618.5955731436038</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F28" t="n">
-        <v>446.7337989181643</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G28" t="n">
-        <v>280.4768292123964</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H28" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I28" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J28" t="n">
-        <v>77.3672451467865</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K28" t="n">
-        <v>303.8948463526237</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L28" t="n">
-        <v>303.8948463526237</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M28" t="n">
-        <v>695.0806413228745</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N28" t="n">
-        <v>1072.57215219891</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O28" t="n">
-        <v>1428.000280878673</v>
+        <v>1799.725677711293</v>
       </c>
       <c r="P28" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q28" t="n">
         <v>1845.599623041337</v>
@@ -6420,16 +6420,16 @@
         <v>1104.902165973849</v>
       </c>
       <c r="V28" t="n">
-        <v>844.9383414538618</v>
+        <v>823.1906985818782</v>
       </c>
       <c r="W28" t="n">
-        <v>844.9383414538618</v>
+        <v>548.3382947543912</v>
       </c>
       <c r="X28" t="n">
-        <v>844.9383414538618</v>
+        <v>305.7743982001963</v>
       </c>
       <c r="Y28" t="n">
-        <v>618.5955731436038</v>
+        <v>79.43162988993831</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1014.031259917554</v>
+        <v>498.7095937040555</v>
       </c>
       <c r="C29" t="n">
-        <v>1014.031259917554</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="D29" t="n">
-        <v>1014.031259917554</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="E29" t="n">
-        <v>588.0543200654114</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="F29" t="n">
-        <v>588.0543200654114</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="G29" t="n">
-        <v>369.6772422433207</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="H29" t="n">
-        <v>71.80886371735552</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I29" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J29" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K29" t="n">
-        <v>493.6978991635576</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L29" t="n">
-        <v>815.1719019525202</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="M29" t="n">
-        <v>815.1719019525202</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="N29" t="n">
-        <v>1271.957808655251</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O29" t="n">
-        <v>1271.957808655251</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P29" t="n">
-        <v>1271.957808655251</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q29" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R29" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S29" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T29" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U29" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V29" t="n">
-        <v>1845.599623041337</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="W29" t="n">
-        <v>1845.599623041337</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="X29" t="n">
-        <v>1433.879624209084</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="Y29" t="n">
-        <v>1433.879624209084</v>
+        <v>904.4624336817722</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C30" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D30" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E30" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F30" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G30" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H30" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I30" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J30" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K30" t="n">
-        <v>308.6094817404178</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L30" t="n">
-        <v>308.6094817404178</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M30" t="n">
-        <v>765.3953884431487</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="N30" t="n">
-        <v>1222.18129514588</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O30" t="n">
-        <v>1306.794406253903</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P30" t="n">
-        <v>1306.794406253903</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q30" t="n">
-        <v>1763.580312956633</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R30" t="n">
         <v>1845.599623041337</v>
@@ -6572,7 +6572,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T30" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U30" t="n">
         <v>1437.627243819906</v>
@@ -6581,13 +6581,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W30" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X30" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y30" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1120.093114985063</v>
+        <v>375.1689055061675</v>
       </c>
       <c r="C31" t="n">
-        <v>948.1205518639796</v>
+        <v>375.1689055061675</v>
       </c>
       <c r="D31" t="n">
-        <v>784.8037789907503</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="E31" t="n">
-        <v>618.5955731436038</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="F31" t="n">
-        <v>446.7337989181643</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="G31" t="n">
         <v>280.4768292123964</v>
@@ -6618,7 +6618,7 @@
         <v>136.6805607205508</v>
       </c>
       <c r="I31" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J31" t="n">
         <v>94.40332068498475</v>
@@ -6645,28 +6645,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R31" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S31" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T31" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="U31" t="n">
-        <v>1845.599623041337</v>
+        <v>1348.241513747949</v>
       </c>
       <c r="V31" t="n">
-        <v>1845.599623041337</v>
+        <v>1066.530046355978</v>
       </c>
       <c r="W31" t="n">
-        <v>1779.165748561582</v>
+        <v>791.6776425284911</v>
       </c>
       <c r="X31" t="n">
-        <v>1536.601852007387</v>
+        <v>791.6776425284911</v>
       </c>
       <c r="Y31" t="n">
-        <v>1310.259083697129</v>
+        <v>565.3348742182332</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>887.1053432625264</v>
+        <v>508.071083982119</v>
       </c>
       <c r="C32" t="n">
-        <v>460.2046132758265</v>
+        <v>508.071083982119</v>
       </c>
       <c r="D32" t="n">
-        <v>36.91199246082673</v>
+        <v>508.071083982119</v>
       </c>
       <c r="E32" t="n">
-        <v>36.91199246082673</v>
+        <v>508.071083982119</v>
       </c>
       <c r="F32" t="n">
-        <v>36.91199246082673</v>
+        <v>508.071083982119</v>
       </c>
       <c r="G32" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H32" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I32" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J32" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K32" t="n">
-        <v>36.91199246082673</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L32" t="n">
-        <v>493.6978991635576</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="M32" t="n">
-        <v>950.4838058662883</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="N32" t="n">
-        <v>1407.269712569019</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O32" t="n">
-        <v>1407.269712569019</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P32" t="n">
         <v>1845.599623041337</v>
@@ -6727,25 +6727,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S32" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T32" t="n">
-        <v>1624.67405208597</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U32" t="n">
-        <v>1366.319142682382</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V32" t="n">
-        <v>1292.442613307636</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="W32" t="n">
-        <v>1292.442613307636</v>
+        <v>508.071083982119</v>
       </c>
       <c r="X32" t="n">
-        <v>1292.442613307636</v>
+        <v>508.071083982119</v>
       </c>
       <c r="Y32" t="n">
-        <v>887.1053432625264</v>
+        <v>508.071083982119</v>
       </c>
     </row>
     <row r="33">
@@ -6755,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C33" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D33" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E33" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F33" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G33" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H33" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I33" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J33" t="n">
-        <v>36.91199246082673</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K33" t="n">
-        <v>36.91199246082673</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L33" t="n">
-        <v>36.91199246082673</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M33" t="n">
-        <v>493.6978991635576</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="N33" t="n">
-        <v>950.4838058662883</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O33" t="n">
-        <v>1407.269712569019</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P33" t="n">
         <v>1845.599623041337</v>
@@ -6809,7 +6809,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T33" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U33" t="n">
         <v>1437.627243819906</v>
@@ -6818,13 +6818,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W33" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X33" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y33" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="34">
@@ -6834,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.6268020276829</v>
+        <v>524.5425982991959</v>
       </c>
       <c r="C34" t="n">
-        <v>408.6542389065988</v>
+        <v>352.5700351781119</v>
       </c>
       <c r="D34" t="n">
-        <v>408.6542389065988</v>
+        <v>352.5700351781119</v>
       </c>
       <c r="E34" t="n">
-        <v>408.6542389065988</v>
+        <v>352.5700351781119</v>
       </c>
       <c r="F34" t="n">
-        <v>236.7924646811593</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="G34" t="n">
-        <v>70.5354949753914</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H34" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I34" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J34" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K34" t="n">
-        <v>320.9309218908219</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L34" t="n">
-        <v>675.6202431852428</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M34" t="n">
-        <v>1066.806038155494</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N34" t="n">
-        <v>1444.297549031529</v>
+        <v>1386.806220807371</v>
       </c>
       <c r="O34" t="n">
-        <v>1799.725677711293</v>
+        <v>1742.234349487134</v>
       </c>
       <c r="P34" t="n">
         <v>1845.599623041337</v>
@@ -6882,28 +6882,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R34" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S34" t="n">
-        <v>1628.425962247645</v>
+        <v>1793.352482157207</v>
       </c>
       <c r="T34" t="n">
-        <v>1385.086614473545</v>
+        <v>1550.013134383107</v>
       </c>
       <c r="U34" t="n">
-        <v>1104.902165973849</v>
+        <v>1550.013134383107</v>
       </c>
       <c r="V34" t="n">
-        <v>823.1906985818778</v>
+        <v>1268.301666991136</v>
       </c>
       <c r="W34" t="n">
-        <v>823.1906985818778</v>
+        <v>993.4492631636488</v>
       </c>
       <c r="X34" t="n">
-        <v>580.6268020276829</v>
+        <v>750.8853666094539</v>
       </c>
       <c r="Y34" t="n">
-        <v>580.6268020276829</v>
+        <v>524.5425982991959</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>463.8127224475267</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="C35" t="n">
-        <v>36.91199246082673</v>
+        <v>581.9289978219319</v>
       </c>
       <c r="D35" t="n">
-        <v>36.91199246082673</v>
+        <v>581.9289978219319</v>
       </c>
       <c r="E35" t="n">
-        <v>36.91199246082673</v>
+        <v>581.9289978219319</v>
       </c>
       <c r="F35" t="n">
-        <v>36.91199246082673</v>
+        <v>581.9289978219319</v>
       </c>
       <c r="G35" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H35" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I35" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J35" t="n">
         <v>399.5154512777223</v>
@@ -6946,19 +6946,19 @@
         <v>1313.087264683184</v>
       </c>
       <c r="M35" t="n">
-        <v>1728.043288159434</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="N35" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O35" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P35" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q35" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R35" t="n">
         <v>1845.599623041337</v>
@@ -6967,22 +6967,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T35" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U35" t="n">
-        <v>1845.599623041337</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="V35" t="n">
-        <v>1845.599623041337</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="W35" t="n">
-        <v>1449.208273341683</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="X35" t="n">
-        <v>1288.998356784166</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="Y35" t="n">
-        <v>883.6610867390567</v>
+        <v>1008.829727808632</v>
       </c>
     </row>
     <row r="36">
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C36" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D36" t="n">
-        <v>382.6896215250717</v>
+        <v>382.689621525072</v>
       </c>
       <c r="E36" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980092</v>
       </c>
       <c r="F36" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809133</v>
       </c>
       <c r="G36" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851735</v>
       </c>
       <c r="H36" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I36" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J36" t="n">
-        <v>36.91199246082673</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K36" t="n">
-        <v>36.91199246082673</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L36" t="n">
-        <v>36.91199246082673</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M36" t="n">
-        <v>36.91199246082673</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="N36" t="n">
-        <v>493.6978991635576</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O36" t="n">
-        <v>850.0084995511719</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P36" t="n">
-        <v>1306.794406253903</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q36" t="n">
-        <v>1763.580312956633</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R36" t="n">
         <v>1845.599623041337</v>
@@ -7046,7 +7046,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T36" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U36" t="n">
         <v>1437.627243819906</v>
@@ -7055,13 +7055,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W36" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X36" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y36" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1020.32454672534</v>
+        <v>126.4702432027651</v>
       </c>
       <c r="C37" t="n">
-        <v>848.3519836042556</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D37" t="n">
-        <v>685.0352107310263</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E37" t="n">
-        <v>518.8270048838798</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F37" t="n">
-        <v>346.9652306584402</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G37" t="n">
-        <v>180.7082609526723</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H37" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I37" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J37" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K37" t="n">
         <v>263.4395936666639</v>
@@ -7104,13 +7104,13 @@
         <v>618.1289149610848</v>
       </c>
       <c r="M37" t="n">
-        <v>1009.314709931336</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.806220807371</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O37" t="n">
-        <v>1742.234349487134</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P37" t="n">
         <v>1845.599623041337</v>
@@ -7125,22 +7125,22 @@
         <v>1675.464575560472</v>
       </c>
       <c r="T37" t="n">
-        <v>1432.125227786371</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="U37" t="n">
         <v>1151.940779286676</v>
       </c>
       <c r="V37" t="n">
-        <v>1151.940779286676</v>
+        <v>870.229311894705</v>
       </c>
       <c r="W37" t="n">
-        <v>1151.940779286676</v>
+        <v>595.376908067218</v>
       </c>
       <c r="X37" t="n">
-        <v>1151.940779286676</v>
+        <v>352.8130115130231</v>
       </c>
       <c r="Y37" t="n">
-        <v>1151.940779286676</v>
+        <v>126.4702432027651</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1292.35217653412</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="C38" t="n">
-        <v>1292.35217653412</v>
+        <v>477.5617036950723</v>
       </c>
       <c r="D38" t="n">
-        <v>1292.35217653412</v>
+        <v>477.5617036950723</v>
       </c>
       <c r="E38" t="n">
-        <v>866.3752366819779</v>
+        <v>477.5617036950723</v>
       </c>
       <c r="F38" t="n">
-        <v>441.2510548713781</v>
+        <v>477.5617036950723</v>
       </c>
       <c r="G38" t="n">
-        <v>36.91199246082673</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H38" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I38" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J38" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K38" t="n">
-        <v>814.4714747539723</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L38" t="n">
-        <v>1271.257381456703</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="M38" t="n">
-        <v>1271.257381456703</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="N38" t="n">
-        <v>1271.257381456703</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O38" t="n">
-        <v>1271.257381456703</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P38" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q38" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R38" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S38" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T38" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U38" t="n">
-        <v>1587.244713637749</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V38" t="n">
-        <v>1292.35217653412</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="W38" t="n">
-        <v>1292.35217653412</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="X38" t="n">
-        <v>1292.35217653412</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="Y38" t="n">
-        <v>1292.35217653412</v>
+        <v>904.4624336817722</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C39" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D39" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E39" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F39" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G39" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H39" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I39" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J39" t="n">
-        <v>316.0561247023297</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K39" t="n">
         <v>772.8420314050604</v>
       </c>
       <c r="L39" t="n">
-        <v>772.8420314050604</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M39" t="n">
-        <v>772.8420314050604</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="N39" t="n">
-        <v>772.8420314050604</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O39" t="n">
-        <v>1229.627938107791</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P39" t="n">
-        <v>1306.794406253903</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q39" t="n">
-        <v>1763.580312956633</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R39" t="n">
         <v>1845.599623041337</v>
@@ -7283,7 +7283,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T39" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U39" t="n">
         <v>1437.627243819906</v>
@@ -7292,13 +7292,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W39" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X39" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y39" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="40">
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1020.32454672534</v>
+        <v>876.528278233494</v>
       </c>
       <c r="C40" t="n">
-        <v>848.3519836042556</v>
+        <v>704.55571511241</v>
       </c>
       <c r="D40" t="n">
-        <v>685.0352107310263</v>
+        <v>541.2389422391807</v>
       </c>
       <c r="E40" t="n">
-        <v>518.8270048838798</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="F40" t="n">
-        <v>346.9652306584402</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G40" t="n">
-        <v>180.7082609526723</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H40" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I40" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J40" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K40" t="n">
-        <v>263.4395936666639</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L40" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M40" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N40" t="n">
-        <v>1199.572282439673</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O40" t="n">
-        <v>1555.000411119436</v>
+        <v>1799.725677711293</v>
       </c>
       <c r="P40" t="n">
         <v>1845.599623041337</v>
@@ -7356,28 +7356,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R40" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S40" t="n">
-        <v>1675.464575560472</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T40" t="n">
-        <v>1432.125227786371</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="U40" t="n">
-        <v>1151.940779286676</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="V40" t="n">
-        <v>1151.940779286676</v>
+        <v>1346.714494855674</v>
       </c>
       <c r="W40" t="n">
-        <v>1151.940779286676</v>
+        <v>1346.714494855674</v>
       </c>
       <c r="X40" t="n">
-        <v>1151.940779286676</v>
+        <v>1293.037015255818</v>
       </c>
       <c r="Y40" t="n">
-        <v>1151.940779286676</v>
+        <v>1066.69424694556</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1029.359909050153</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="C41" t="n">
-        <v>602.4591790634536</v>
+        <v>477.5617036950723</v>
       </c>
       <c r="D41" t="n">
-        <v>179.1665582484538</v>
+        <v>477.5617036950723</v>
       </c>
       <c r="E41" t="n">
-        <v>36.91199246082673</v>
+        <v>477.5617036950723</v>
       </c>
       <c r="F41" t="n">
-        <v>36.91199246082673</v>
+        <v>477.5617036950723</v>
       </c>
       <c r="G41" t="n">
-        <v>36.91199246082673</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H41" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I41" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J41" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K41" t="n">
-        <v>399.5154512777223</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L41" t="n">
-        <v>815.1719019525202</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="M41" t="n">
-        <v>815.1719019525202</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="N41" t="n">
-        <v>815.1719019525202</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O41" t="n">
-        <v>815.1719019525202</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P41" t="n">
-        <v>1271.957808655251</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q41" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R41" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S41" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T41" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U41" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V41" t="n">
-        <v>1845.599623041337</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="W41" t="n">
-        <v>1449.208273341683</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="X41" t="n">
-        <v>1449.208273341683</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="Y41" t="n">
-        <v>1449.208273341683</v>
+        <v>904.4624336817722</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C42" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D42" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E42" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F42" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G42" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H42" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I42" t="n">
-        <v>44.35863542273857</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="J42" t="n">
-        <v>44.35863542273857</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K42" t="n">
-        <v>44.35863542273857</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="L42" t="n">
-        <v>44.35863542273857</v>
+        <v>1222.18129514588</v>
       </c>
       <c r="M42" t="n">
-        <v>501.1445421254694</v>
+        <v>1678.967201848611</v>
       </c>
       <c r="N42" t="n">
-        <v>957.9304488282003</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O42" t="n">
-        <v>1306.794406253903</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P42" t="n">
-        <v>1306.794406253903</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q42" t="n">
-        <v>1763.580312956633</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R42" t="n">
         <v>1845.599623041337</v>
@@ -7520,7 +7520,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T42" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U42" t="n">
         <v>1437.627243819906</v>
@@ -7529,13 +7529,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W42" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X42" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y42" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="43">
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>106.4393219715641</v>
+        <v>528.3073735231906</v>
       </c>
       <c r="C43" t="n">
-        <v>36.91199246082673</v>
+        <v>366.4369711812025</v>
       </c>
       <c r="D43" t="n">
-        <v>36.91199246082673</v>
+        <v>203.1201983079732</v>
       </c>
       <c r="E43" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F43" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G43" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H43" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I43" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J43" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K43" t="n">
-        <v>263.4395936666639</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L43" t="n">
-        <v>618.1289149610848</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M43" t="n">
-        <v>1009.314709931336</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.806220807371</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O43" t="n">
-        <v>1742.234349487134</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P43" t="n">
         <v>1845.599623041337</v>
@@ -7593,28 +7593,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R43" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S43" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T43" t="n">
-        <v>1602.260275267236</v>
+        <v>1555.22166195441</v>
       </c>
       <c r="U43" t="n">
-        <v>1322.075826767541</v>
+        <v>1275.037213454714</v>
       </c>
       <c r="V43" t="n">
-        <v>1040.36435937557</v>
+        <v>993.3257460627433</v>
       </c>
       <c r="W43" t="n">
-        <v>765.5119555480826</v>
+        <v>718.4733422352563</v>
       </c>
       <c r="X43" t="n">
-        <v>522.9480589938877</v>
+        <v>718.4733422352563</v>
       </c>
       <c r="Y43" t="n">
-        <v>296.6052906836297</v>
+        <v>718.4733422352563</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>885.3287950864262</v>
+        <v>923.8337755146551</v>
       </c>
       <c r="C44" t="n">
-        <v>885.3287950864262</v>
+        <v>496.9330455279553</v>
       </c>
       <c r="D44" t="n">
-        <v>462.0361742714265</v>
+        <v>496.9330455279553</v>
       </c>
       <c r="E44" t="n">
-        <v>462.0361742714265</v>
+        <v>496.9330455279553</v>
       </c>
       <c r="F44" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="G44" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="H44" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I44" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J44" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K44" t="n">
-        <v>399.5154512777223</v>
+        <v>475.2419029331441</v>
       </c>
       <c r="L44" t="n">
-        <v>856.3013579804531</v>
+        <v>932.027809635875</v>
       </c>
       <c r="M44" t="n">
-        <v>856.3013579804531</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="N44" t="n">
-        <v>932.7282368344228</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O44" t="n">
-        <v>932.7282368344228</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P44" t="n">
-        <v>1389.514143537154</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q44" t="n">
         <v>1845.599623041337</v>
@@ -7675,25 +7675,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S44" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T44" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U44" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="V44" t="n">
-        <v>1687.057414831189</v>
+        <v>1329.171045559765</v>
       </c>
       <c r="W44" t="n">
-        <v>1290.666065131536</v>
+        <v>1329.171045559765</v>
       </c>
       <c r="X44" t="n">
-        <v>1290.666065131536</v>
+        <v>1329.171045559765</v>
       </c>
       <c r="Y44" t="n">
-        <v>885.3287950864262</v>
+        <v>923.8337755146551</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C45" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D45" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E45" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F45" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G45" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H45" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I45" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J45" t="n">
-        <v>44.35863542273857</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K45" t="n">
-        <v>44.35863542273857</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L45" t="n">
-        <v>44.35863542273857</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M45" t="n">
-        <v>501.1445421254694</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N45" t="n">
-        <v>932.0278096358751</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="O45" t="n">
+        <v>1229.627938107791</v>
+      </c>
+      <c r="P45" t="n">
         <v>1388.813716338606</v>
-      </c>
-      <c r="P45" t="n">
-        <v>1845.599623041337</v>
       </c>
       <c r="Q45" t="n">
         <v>1845.599623041337</v>
@@ -7757,7 +7757,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T45" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U45" t="n">
         <v>1437.627243819906</v>
@@ -7766,13 +7766,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W45" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X45" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y45" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1083.344225850373</v>
+        <v>650.0213093336545</v>
       </c>
       <c r="C46" t="n">
-        <v>911.3716627292888</v>
+        <v>650.0213093336545</v>
       </c>
       <c r="D46" t="n">
-        <v>748.0548898560595</v>
+        <v>486.7045364604252</v>
       </c>
       <c r="E46" t="n">
-        <v>581.846684008913</v>
+        <v>320.4963306132787</v>
       </c>
       <c r="F46" t="n">
-        <v>409.9849097834734</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G46" t="n">
-        <v>243.7279400777056</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H46" t="n">
-        <v>99.93167158585996</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I46" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J46" t="n">
         <v>94.40332068498475</v>
@@ -7818,13 +7818,13 @@
         <v>1066.806038155494</v>
       </c>
       <c r="N46" t="n">
-        <v>1072.57215219891</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O46" t="n">
-        <v>1428.000280878673</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P46" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q46" t="n">
         <v>1845.599623041337</v>
@@ -7833,25 +7833,25 @@
         <v>1798.56100972851</v>
       </c>
       <c r="S46" t="n">
-        <v>1798.56100972851</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T46" t="n">
-        <v>1555.22166195441</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="U46" t="n">
-        <v>1555.22166195441</v>
+        <v>1348.241513747949</v>
       </c>
       <c r="V46" t="n">
-        <v>1273.510194562439</v>
+        <v>1066.530046355978</v>
       </c>
       <c r="W46" t="n">
-        <v>1273.510194562439</v>
+        <v>1066.530046355978</v>
       </c>
       <c r="X46" t="n">
-        <v>1273.510194562439</v>
+        <v>1066.530046355978</v>
       </c>
       <c r="Y46" t="n">
-        <v>1273.510194562439</v>
+        <v>840.1872780457202</v>
       </c>
     </row>
   </sheetData>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M17" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N17" t="n">
-        <v>37.27962283444602</v>
+        <v>113.770988142953</v>
       </c>
       <c r="O17" t="n">
         <v>37.3909593560241</v>
@@ -9239,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>182.1367435982028</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
         <v>20.964654452712</v>
       </c>
       <c r="L19" t="n">
-        <v>21.91875989570122</v>
+        <v>233.5263615801855</v>
       </c>
       <c r="M19" t="n">
-        <v>22.57543989148582</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N19" t="n">
-        <v>20.74890097560039</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>22.49918749842445</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9406,25 +9406,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M20" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N20" t="n">
         <v>498.6795285947802</v>
       </c>
       <c r="O20" t="n">
-        <v>37.3909593560241</v>
+        <v>113.8823246645311</v>
       </c>
       <c r="P20" t="n">
-        <v>457.4303624918454</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,31 +9476,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>484.4966862726621</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>106.8108172115448</v>
+        <v>99.28895563385612</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9567,7 +9567,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>417.7126065281028</v>
+        <v>335.7669652041454</v>
       </c>
       <c r="N22" t="n">
         <v>402.0534574160406</v>
@@ -9576,10 +9576,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>68.71811917318252</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q22" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M23" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N23" t="n">
-        <v>362.0008377727921</v>
+        <v>113.770988142953</v>
       </c>
       <c r="O23" t="n">
-        <v>498.7908651163582</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P23" t="n">
-        <v>498.9752675705654</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9725,10 +9725,10 @@
         <v>483.9149924745637</v>
       </c>
       <c r="M24" t="n">
-        <v>484.4966862726621</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N24" t="n">
-        <v>182.1367435982031</v>
+        <v>182.1367435982028</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
-        <v>380.1908016072373</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M25" t="n">
-        <v>417.7126065281028</v>
+        <v>400.5044494188121</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O25" t="n">
-        <v>192.3923090257622</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>497.1645065551435</v>
       </c>
       <c r="L26" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M26" t="n">
-        <v>362.152477837778</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N26" t="n">
-        <v>498.6795285947802</v>
+        <v>113.770988142953</v>
       </c>
       <c r="O26" t="n">
         <v>37.3909593560241</v>
@@ -9895,10 +9895,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>483.7991395936675</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M27" t="n">
-        <v>484.4966862726621</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>182.1367435982028</v>
       </c>
       <c r="O27" t="n">
-        <v>383.0815870834489</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,13 +10032,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>61.50064758588144</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
         <v>417.7126065281028</v>
@@ -10050,10 +10050,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>68.71811917318276</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>497.1645065551435</v>
       </c>
       <c r="L29" t="n">
-        <v>363.0332573709691</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N29" t="n">
-        <v>498.6795285947802</v>
+        <v>113.770988142953</v>
       </c>
       <c r="O29" t="n">
         <v>37.3909593560241</v>
@@ -10132,10 +10132,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M30" t="n">
-        <v>484.4966862726621</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N30" t="n">
-        <v>482.7429339738758</v>
+        <v>182.1367435982028</v>
       </c>
       <c r="O30" t="n">
-        <v>108.6396787202253</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10287,7 +10287,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>68.71811917318252</v>
+        <v>68.71811917318276</v>
       </c>
       <c r="Q31" t="n">
         <v>24.61956276478495</v>
@@ -10348,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L32" t="n">
-        <v>499.7119481929571</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M32" t="n">
         <v>498.831168659766</v>
       </c>
       <c r="N32" t="n">
-        <v>498.6795285947802</v>
+        <v>113.770988142953</v>
       </c>
       <c r="O32" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
-        <v>480.3328471358044</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10424,28 +10424,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M33" t="n">
-        <v>484.4966862726621</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N33" t="n">
-        <v>482.7429339738758</v>
+        <v>182.1367435982028</v>
       </c>
       <c r="O33" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>464.5283265304018</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K34" t="n">
         <v>249.7804132464869</v>
@@ -10524,7 +10524,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>68.71811917318252</v>
+        <v>126.7901678844537</v>
       </c>
       <c r="Q34" t="n">
         <v>24.61956276478495</v>
@@ -10591,13 +10591,13 @@
         <v>497.1645065551435</v>
       </c>
       <c r="L35" t="n">
-        <v>499.7119481929571</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M35" t="n">
-        <v>456.5787613602905</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N35" t="n">
-        <v>37.27962283444602</v>
+        <v>113.770988142953</v>
       </c>
       <c r="O35" t="n">
         <v>37.3909593560241</v>
@@ -10609,7 +10609,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N36" t="n">
-        <v>482.7429339738758</v>
+        <v>182.1367435982028</v>
       </c>
       <c r="O36" t="n">
-        <v>383.0815870834488</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>483.1707469651628</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10752,7 +10752,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>417.7126065281028</v>
+        <v>228.5874162576999</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
@@ -10761,7 +10761,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>126.7901678844535</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
         <v>24.61956276478495</v>
@@ -10825,28 +10825,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>454.912099255668</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L38" t="n">
-        <v>499.7119481929571</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M38" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N38" t="n">
-        <v>37.27962283444602</v>
+        <v>113.770988142953</v>
       </c>
       <c r="O38" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P38" t="n">
-        <v>498.9752675705654</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,25 +10907,25 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>182.1367435982028</v>
       </c>
       <c r="O39" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>99.7167686251434</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,13 +10980,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>191.0656113368345</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
         <v>417.7126065281028</v>
@@ -10998,7 +10998,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>68.71811917318276</v>
       </c>
       <c r="Q40" t="n">
         <v>24.61956276478495</v>
@@ -11062,28 +11062,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L41" t="n">
-        <v>458.1670431142371</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>113.9226282079388</v>
       </c>
       <c r="N41" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P41" t="n">
-        <v>498.9752675705654</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M42" t="n">
-        <v>484.4966862726621</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N42" t="n">
-        <v>482.7429339738758</v>
+        <v>189.6586051758914</v>
       </c>
       <c r="O42" t="n">
-        <v>375.55972550576</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
         <v>249.7804132464869</v>
@@ -11229,13 +11229,13 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N43" t="n">
-        <v>402.0534574160406</v>
+        <v>154.8562184343671</v>
       </c>
       <c r="O43" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>126.7901678844535</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
         <v>24.61956276478495</v>
@@ -11299,25 +11299,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>112.2559661033163</v>
       </c>
       <c r="L44" t="n">
-        <v>499.7119481929571</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N44" t="n">
-        <v>114.4784903637083</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P44" t="n">
-        <v>498.9752675705654</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11375,28 +11375,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>484.4966862726621</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>456.5786519614262</v>
+        <v>482.7429339738759</v>
       </c>
       <c r="O45" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>483.1707469651628</v>
+        <v>182.5645565894898</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -11466,7 +11466,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
-        <v>26.57325859521331</v>
+        <v>154.8562184343671</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
@@ -11475,7 +11475,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23737,13 +23737,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
@@ -23788,10 +23788,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>80.7349318128245</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>140.4611363452985</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>194.556163395115</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -23907,7 +23907,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>47.62221948069276</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,19 +23971,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>266.5191670199141</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>294.8896947407055</v>
@@ -24031,13 +24031,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>258.5142482996731</v>
       </c>
     </row>
     <row r="21">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>44.31882567078551</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -24141,13 +24141,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>185.4558099288065</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
@@ -24220,13 +24220,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>37.77244695348412</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>285.6218193654225</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>146.1698679701245</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>49.70374399089712</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24445,22 +24445,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>210.7437019696686</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,19 +24496,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>217.2472704341542</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -24603,7 +24603,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>128.1583964350527</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -24612,16 +24612,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>21.53016644326414</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>13.95456907067523</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>184.102364742576</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24840,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>67.93844961366362</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>206.334344054255</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24919,10 +24919,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
@@ -24931,10 +24931,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>400.2956717864458</v>
+        <v>228.737865921072</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>34.5479025439635</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7767566440144</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>109.0710383175081</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>116.7090275307678</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>155.6185312196572</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -25207,22 +25207,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>248.9949814519883</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>57.96423878922224</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>81.59016925535418</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,25 +25393,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>293.4900549492119</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>61.97090899242062</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>57.96423878922224</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>186.9975527847952</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>280.8851503238702</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>293.4900549492119</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>101.4207812742432</v>
+        <v>10.00113917130494</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25867,10 +25867,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -25885,7 +25885,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>196.957734596967</v>
+        <v>164.690165449661</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>53.98906172096794</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>36.38140024334389</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60870.09540019949</v>
+        <v>466083.0460925652</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>466083.0460925651</v>
+        <v>466083.0460925652</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>466083.0460925653</v>
+        <v>466083.0460925652</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>466083.0460925652</v>
+        <v>466083.0460925654</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>466083.0460925652</v>
+        <v>466083.0460925653</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>466083.0460925652</v>
+        <v>466083.0460925651</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>466083.0460925654</v>
+        <v>466083.0460925652</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>7854.205858090254</v>
+      </c>
+      <c r="C2" t="n">
         <v>7854.205858090252</v>
       </c>
-      <c r="C2" t="n">
-        <v>7854.205858090251</v>
-      </c>
       <c r="D2" t="n">
-        <v>7854.205858090252</v>
+        <v>7854.205858090254</v>
       </c>
       <c r="E2" t="n">
-        <v>7854.205858090251</v>
+        <v>7854.205858090253</v>
       </c>
       <c r="F2" t="n">
-        <v>7854.205858090254</v>
+        <v>7854.205858090253</v>
       </c>
       <c r="G2" t="n">
-        <v>7854.205858090253</v>
+        <v>60139.74788291163</v>
       </c>
       <c r="H2" t="n">
-        <v>60139.7478829116</v>
+        <v>60139.74788291164</v>
       </c>
       <c r="I2" t="n">
         <v>60139.74788291162</v>
       </c>
       <c r="J2" t="n">
+        <v>60139.74788291163</v>
+      </c>
+      <c r="K2" t="n">
+        <v>60139.74788291164</v>
+      </c>
+      <c r="L2" t="n">
         <v>60139.74788291162</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>60139.74788291162</v>
-      </c>
-      <c r="L2" t="n">
-        <v>60139.74788291163</v>
-      </c>
-      <c r="M2" t="n">
-        <v>60139.74788291163</v>
       </c>
       <c r="N2" t="n">
         <v>60139.74788291162</v>
       </c>
       <c r="O2" t="n">
-        <v>60139.74788291164</v>
+        <v>60139.74788291162</v>
       </c>
       <c r="P2" t="n">
-        <v>60139.74788291162</v>
+        <v>60139.74788291161</v>
       </c>
     </row>
     <row r="3">
@@ -26380,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>126462.7931703212</v>
       </c>
       <c r="H3" t="n">
-        <v>124489.84717329</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>111036.3487211302</v>
       </c>
       <c r="P3" t="n">
-        <v>109062.9413241932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26432,7 +26432,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>400.1036273708401</v>
       </c>
       <c r="H4" t="n">
         <v>400.1036273708401</v>
@@ -26447,7 +26447,7 @@
         <v>400.1036273708401</v>
       </c>
       <c r="L4" t="n">
-        <v>400.10362737084</v>
+        <v>400.1036273708401</v>
       </c>
       <c r="M4" t="n">
         <v>400.1036273708401</v>
@@ -26484,34 +26484,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="H5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="I5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="J5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="K5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="L5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="M5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="N5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="O5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="P5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25773.39414190975</v>
+        <v>-27131.32323871153</v>
       </c>
       <c r="C6" t="n">
-        <v>-25773.39414190975</v>
+        <v>-27131.32323871153</v>
       </c>
       <c r="D6" t="n">
-        <v>-25773.39414190975</v>
+        <v>-27131.32323871153</v>
       </c>
       <c r="E6" t="n">
-        <v>7854.205858090251</v>
+        <v>6496.276761288474</v>
       </c>
       <c r="F6" t="n">
-        <v>7854.205858090254</v>
+        <v>6496.276761288474</v>
       </c>
       <c r="G6" t="n">
-        <v>7854.205858090253</v>
+        <v>-95480.62300650026</v>
       </c>
       <c r="H6" t="n">
-        <v>-92803.31718797756</v>
+        <v>30982.17016382098</v>
       </c>
       <c r="I6" t="n">
-        <v>31686.52998531247</v>
+        <v>30982.17016382096</v>
       </c>
       <c r="J6" t="n">
-        <v>31686.52998531247</v>
+        <v>30982.17016382096</v>
       </c>
       <c r="K6" t="n">
-        <v>31686.52998531246</v>
+        <v>30982.17016382098</v>
       </c>
       <c r="L6" t="n">
-        <v>31686.52998531248</v>
+        <v>30982.17016382096</v>
       </c>
       <c r="M6" t="n">
-        <v>31686.52998531248</v>
+        <v>30982.17016382095</v>
       </c>
       <c r="N6" t="n">
-        <v>31686.52998531246</v>
+        <v>30982.17016382096</v>
       </c>
       <c r="O6" t="n">
-        <v>31686.52998531249</v>
+        <v>-80054.17855730925</v>
       </c>
       <c r="P6" t="n">
-        <v>-77376.41133888075</v>
+        <v>30982.17016382094</v>
       </c>
     </row>
   </sheetData>
@@ -26804,34 +26804,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="H4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="I4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
     </row>
   </sheetData>
@@ -27026,10 +27026,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="H4" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27050,10 +27050,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27272,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>160.7937153846612</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>211.6076016844843</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N20" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="P20" t="n">
-        <v>419.8550006816141</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>85.46778899800312</v>
+        <v>77.94592742031445</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R21" t="n">
         <v>82.84778796434657</v>
@@ -36287,7 +36287,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M22" t="n">
-        <v>395.137166636617</v>
+        <v>313.1915253126596</v>
       </c>
       <c r="N22" t="n">
         <v>381.3045564404402</v>
@@ -36296,10 +36296,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P22" t="n">
-        <v>46.33731851519604</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N23" t="n">
-        <v>324.7212149383461</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="O23" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P23" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L24" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M24" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N24" t="n">
-        <v>160.7937153846614</v>
+        <v>160.7937153846612</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K25" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L25" t="n">
-        <v>358.2720417115361</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>395.137166636617</v>
+        <v>377.9290095273263</v>
       </c>
       <c r="N25" t="n">
         <v>381.3045564404402</v>
       </c>
       <c r="O25" t="n">
-        <v>169.8931215273378</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P25" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M26" t="n">
-        <v>324.7212149383461</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N26" t="n">
-        <v>461.3999057603341</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -36615,10 +36615,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M27" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>160.7937153846612</v>
       </c>
       <c r="O27" t="n">
-        <v>359.9096973612267</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>40.86389160197957</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K28" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M28" t="n">
         <v>395.137166636617</v>
@@ -36770,10 +36770,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P28" t="n">
-        <v>293.5345574968697</v>
+        <v>46.33731851519627</v>
       </c>
       <c r="Q28" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L29" t="n">
-        <v>324.7212149383461</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N29" t="n">
-        <v>461.3999057603341</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -36852,10 +36852,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M30" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N30" t="n">
-        <v>461.3999057603341</v>
+        <v>160.7937153846612</v>
       </c>
       <c r="O30" t="n">
-        <v>85.46778899800312</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37007,7 +37007,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P31" t="n">
-        <v>46.33731851519604</v>
+        <v>46.33731851519627</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L32" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M32" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N32" t="n">
-        <v>461.3999057603341</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M33" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N33" t="n">
-        <v>461.3999057603341</v>
+        <v>160.7937153846612</v>
       </c>
       <c r="O33" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>228.8157587937749</v>
@@ -37244,7 +37244,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P34" t="n">
-        <v>46.33731851519604</v>
+        <v>104.4093672264672</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37308,16 +37308,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L35" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M35" t="n">
-        <v>419.1474984608586</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N36" t="n">
-        <v>461.3999057603341</v>
+        <v>160.7937153846612</v>
       </c>
       <c r="O36" t="n">
-        <v>359.9096973612266</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37472,7 +37472,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M37" t="n">
-        <v>395.137166636617</v>
+        <v>206.0119763662141</v>
       </c>
       <c r="N37" t="n">
         <v>381.3045564404402</v>
@@ -37481,7 +37481,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P37" t="n">
-        <v>104.409367226467</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>419.1474984608586</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L38" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>160.7937153846612</v>
       </c>
       <c r="O39" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>77.94592742031473</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K40" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L40" t="n">
-        <v>169.1468514411333</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M40" t="n">
         <v>395.137166636617</v>
@@ -37718,7 +37718,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P40" t="n">
-        <v>293.5345574968697</v>
+        <v>46.33731851519627</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L41" t="n">
-        <v>419.8550006816141</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P41" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M42" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N42" t="n">
-        <v>461.3999057603341</v>
+        <v>168.3155769623498</v>
       </c>
       <c r="O42" t="n">
-        <v>352.3878357835378</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K43" t="n">
         <v>228.8157587937749</v>
@@ -37949,13 +37949,13 @@
         <v>395.137166636617</v>
       </c>
       <c r="N43" t="n">
-        <v>381.3045564404402</v>
+        <v>134.1073174587667</v>
       </c>
       <c r="O43" t="n">
         <v>359.0183117977405</v>
       </c>
       <c r="P43" t="n">
-        <v>104.409367226467</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>76.49136530850691</v>
       </c>
       <c r="L44" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N44" t="n">
-        <v>77.19886752926232</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P44" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>435.2356237478845</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O45" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>461.3999057603341</v>
+        <v>160.7937153846612</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38186,7 +38186,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N46" t="n">
-        <v>5.824357619612921</v>
+        <v>134.1073174587667</v>
       </c>
       <c r="O46" t="n">
         <v>359.0183117977405</v>
@@ -38195,7 +38195,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
